--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H2">
         <v>2.043375</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N2">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q2">
-        <v>2.738749135</v>
+        <v>3.825208670958332</v>
       </c>
       <c r="R2">
-        <v>24.648742215</v>
+        <v>34.42687803862499</v>
       </c>
       <c r="S2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="T2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H3">
         <v>2.043375</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N3">
         <v>25.306578</v>
       </c>
       <c r="O3">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P3">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q3">
-        <v>5.745647646750002</v>
+        <v>5.745647646749998</v>
       </c>
       <c r="R3">
-        <v>51.71082882075001</v>
+        <v>51.71082882074999</v>
       </c>
       <c r="S3">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="T3">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H4">
         <v>2.043375</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N4">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O4">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P4">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q4">
-        <v>1.015969001541667</v>
+        <v>1.387418249875</v>
       </c>
       <c r="R4">
-        <v>9.143721013875002</v>
+        <v>12.486764248875</v>
       </c>
       <c r="S4">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="T4">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H5">
         <v>2.043375</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N5">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q5">
-        <v>2.357532554166667</v>
+        <v>2.412802896375</v>
       </c>
       <c r="R5">
-        <v>21.2177929875</v>
+        <v>21.715226067375</v>
       </c>
       <c r="S5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="T5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
     </row>
   </sheetData>
